--- a/src/main/resources/template/缴费信息导入模板.xlsx
+++ b/src/main/resources/template/缴费信息导入模板.xlsx
@@ -18,31 +18,127 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
-    <t>住院号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>缴费时间</t>
-  </si>
-  <si>
-    <t>项目ID</t>
+    <r>
+      <t>住院号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>缴费时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>项目ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★</t>
+    </r>
   </si>
   <si>
     <t>项目名字</t>
   </si>
   <si>
-    <t>应交费用</t>
-  </si>
-  <si>
-    <t>实交费用</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
+    <r>
+      <t>应交费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>实交费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>开始时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>结束时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>★</t>
+    </r>
   </si>
   <si>
     <t>000001</t>
@@ -77,12 +173,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,23 +187,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,48 +225,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,6 +247,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -183,55 +263,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -244,25 +347,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,19 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,133 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,17 +538,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,6 +561,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,35 +628,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,19 +656,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,128 +677,136 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1047,13 +1158,14 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="10.7777777777778"/>
     <col min="4" max="5" width="9.66666666666667"/>
+    <col min="6" max="7" width="11.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
     <col min="10" max="10" width="15.3796296296296" customWidth="1"/>
@@ -1070,388 +1182,388 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>42405</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>235</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>3453</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>42401</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <v>42405</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>42406</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>235</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>3453</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>42401</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>42405</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>42407</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>235</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>3453</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>42401</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>42405</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>42408</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>235</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>3453</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>42401</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>42405</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>42409</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>235</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>3453</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>42401</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>42405</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>42410</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>235</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>3453</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>42401</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>42405</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>42405</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>235</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>3453</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>42401</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>42405</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>42406</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>235</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>3453</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>42401</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <v>42405</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>42407</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>235</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>3453</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>42401</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>42405</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>42408</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>235</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>3453</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>42401</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>42405</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>42409</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>235</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>3453</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>42401</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>42405</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>42410</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>235</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>3453</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>42401</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <v>42405</v>
       </c>
     </row>

--- a/src/main/resources/template/缴费信息导入模板.xlsx
+++ b/src/main/resources/template/缴费信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>住院号</t>
     </r>
     <r>
@@ -34,6 +41,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>姓名</t>
     </r>
     <r>
@@ -49,6 +63,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>缴费时间</t>
     </r>
     <r>
@@ -64,6 +85,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>项目ID</t>
     </r>
     <r>
@@ -81,7 +109,17 @@
     <t>项目名字</t>
   </si>
   <si>
+    <t>单价</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>应交费用</t>
     </r>
     <r>
@@ -97,6 +135,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>实交费用</t>
     </r>
     <r>
@@ -112,6 +157,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>开始时间</t>
     </r>
     <r>
@@ -127,6 +179,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>结束时间</t>
     </r>
     <r>
@@ -173,10 +232,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -184,6 +243,119 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,95 +374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -307,30 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -347,19 +406,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,49 +538,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,109 +568,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +597,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,32 +636,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +669,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -627,27 +697,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,142 +715,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1155,24 +1217,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="10.7777777777778"/>
-    <col min="4" max="5" width="9.66666666666667"/>
-    <col min="6" max="7" width="11.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="12.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="15.3796296296296" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="4" max="6" width="9.66666666666667"/>
+    <col min="7" max="8" width="11.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="11.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="12.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="15.3796296296296" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1250,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1200,370 +1262,409 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
         <v>42405</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4">
+        <v>235</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3453</v>
+      </c>
+      <c r="I2" s="5">
+        <v>42401</v>
+      </c>
+      <c r="J2" s="5">
+        <v>42405</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
+      <c r="C3" s="5">
+        <v>42406</v>
+      </c>
+      <c r="D3" s="4">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4">
         <v>235</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H3" s="4">
         <v>3453</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I3" s="5">
         <v>42401</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J3" s="5">
         <v>42405</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42407</v>
+      </c>
+      <c r="D4" s="4">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4">
+        <v>235</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3453</v>
+      </c>
+      <c r="I4" s="5">
+        <v>42401</v>
+      </c>
+      <c r="J4" s="5">
+        <v>42405</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>42408</v>
+      </c>
+      <c r="D5" s="4">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4">
+        <v>235</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3453</v>
+      </c>
+      <c r="I5" s="5">
+        <v>42401</v>
+      </c>
+      <c r="J5" s="5">
+        <v>42405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42409</v>
+      </c>
+      <c r="D6" s="4">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4">
+        <v>235</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3453</v>
+      </c>
+      <c r="I6" s="5">
+        <v>42401</v>
+      </c>
+      <c r="J6" s="5">
+        <v>42405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>42410</v>
+      </c>
+      <c r="D7" s="4">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4">
+        <v>235</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3453</v>
+      </c>
+      <c r="I7" s="5">
+        <v>42401</v>
+      </c>
+      <c r="J7" s="5">
+        <v>42405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>42405</v>
+      </c>
+      <c r="D8" s="4">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4">
+        <v>235</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3453</v>
+      </c>
+      <c r="I8" s="5">
+        <v>42401</v>
+      </c>
+      <c r="J8" s="5">
+        <v>42405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
         <v>42406</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D9" s="4">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4">
+        <v>235</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3453</v>
+      </c>
+      <c r="I9" s="5">
+        <v>42401</v>
+      </c>
+      <c r="J9" s="5">
+        <v>42405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="C10" s="5">
+        <v>42407</v>
+      </c>
+      <c r="D10" s="4">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
         <v>235</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H10" s="4">
         <v>3453</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I10" s="5">
         <v>42401</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J10" s="5">
         <v>42405</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>42407</v>
-      </c>
-      <c r="D4" s="3">
+    <row r="11" spans="1:10">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42408</v>
+      </c>
+      <c r="D11" s="4">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4">
+        <v>235</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3453</v>
+      </c>
+      <c r="I11" s="5">
+        <v>42401</v>
+      </c>
+      <c r="J11" s="5">
+        <v>42405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="C12" s="5">
+        <v>42409</v>
+      </c>
+      <c r="D12" s="4">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4">
+        <v>33</v>
+      </c>
+      <c r="G12" s="4">
         <v>235</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H12" s="4">
         <v>3453</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I12" s="5">
         <v>42401</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J12" s="5">
         <v>42405</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>42408</v>
-      </c>
-      <c r="D5" s="3">
+    <row r="13" spans="1:10">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>42410</v>
+      </c>
+      <c r="D13" s="4">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4">
+        <v>34</v>
+      </c>
+      <c r="G13" s="4">
         <v>235</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H13" s="4">
         <v>3453</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I13" s="5">
         <v>42401</v>
       </c>
-      <c r="I5" s="4">
-        <v>42405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>42409</v>
-      </c>
-      <c r="D6" s="3">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3">
-        <v>235</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3453</v>
-      </c>
-      <c r="H6" s="4">
-        <v>42401</v>
-      </c>
-      <c r="I6" s="4">
-        <v>42405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>42410</v>
-      </c>
-      <c r="D7" s="3">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3">
-        <v>235</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3453</v>
-      </c>
-      <c r="H7" s="4">
-        <v>42401</v>
-      </c>
-      <c r="I7" s="4">
-        <v>42405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4">
-        <v>42405</v>
-      </c>
-      <c r="D8" s="3">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3">
-        <v>235</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3453</v>
-      </c>
-      <c r="H8" s="4">
-        <v>42401</v>
-      </c>
-      <c r="I8" s="4">
-        <v>42405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <v>42406</v>
-      </c>
-      <c r="D9" s="3">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3">
-        <v>235</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3453</v>
-      </c>
-      <c r="H9" s="4">
-        <v>42401</v>
-      </c>
-      <c r="I9" s="4">
-        <v>42405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4">
-        <v>42407</v>
-      </c>
-      <c r="D10" s="3">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3">
-        <v>235</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3453</v>
-      </c>
-      <c r="H10" s="4">
-        <v>42401</v>
-      </c>
-      <c r="I10" s="4">
-        <v>42405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
-        <v>42408</v>
-      </c>
-      <c r="D11" s="3">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3">
-        <v>235</v>
-      </c>
-      <c r="G11" s="3">
-        <v>3453</v>
-      </c>
-      <c r="H11" s="4">
-        <v>42401</v>
-      </c>
-      <c r="I11" s="4">
-        <v>42405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4">
-        <v>42409</v>
-      </c>
-      <c r="D12" s="3">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3">
-        <v>235</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3453</v>
-      </c>
-      <c r="H12" s="4">
-        <v>42401</v>
-      </c>
-      <c r="I12" s="4">
-        <v>42405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
-        <v>42410</v>
-      </c>
-      <c r="D13" s="3">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3">
-        <v>235</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3453</v>
-      </c>
-      <c r="H13" s="4">
-        <v>42401</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="J13" s="5">
         <v>42405</v>
       </c>
     </row>
